--- a/data/trans_orig/P79A10_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P79A10_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>46856</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34715</v>
+        <v>34565</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55406</v>
+        <v>56305</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.664128386983584</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4920389606599508</v>
+        <v>0.4899130463454744</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7853151662536441</v>
+        <v>0.798051829350702</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>60</v>
@@ -762,19 +762,19 @@
         <v>41738</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34246</v>
+        <v>32464</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48485</v>
+        <v>48958</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.6699906487002796</v>
+        <v>0.6699906487002795</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5497182807774583</v>
+        <v>0.5211223428370607</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7782834567443744</v>
+        <v>0.7858763855833351</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>101</v>
@@ -783,19 +783,19 @@
         <v>88595</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>73529</v>
+        <v>74530</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>99932</v>
+        <v>99831</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6668773514758248</v>
+        <v>0.6668773514758247</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5534735760290346</v>
+        <v>0.5610122893538144</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7522160083217392</v>
+        <v>0.751459526306001</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>23697</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15147</v>
+        <v>14248</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>35838</v>
+        <v>35988</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.335871613016416</v>
+        <v>0.3358716130164162</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.214684833746356</v>
+        <v>0.2019481706492979</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5079610393400491</v>
+        <v>0.5100869536545255</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -833,19 +833,19 @@
         <v>20559</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13812</v>
+        <v>13339</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28051</v>
+        <v>29833</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3300093512997204</v>
+        <v>0.3300093512997205</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2217165432556257</v>
+        <v>0.214123614416665</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4502817192225416</v>
+        <v>0.4788776571629393</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>39</v>
@@ -854,19 +854,19 @@
         <v>44255</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>32918</v>
+        <v>33019</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>59321</v>
+        <v>58320</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3331226485241753</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.247783991678261</v>
+        <v>0.248540473693999</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4465264239709658</v>
+        <v>0.4389877106461854</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>72154</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>61520</v>
+        <v>62642</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>76998</v>
+        <v>76464</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.9201618610032248</v>
+        <v>0.9201618610032247</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.784555420379813</v>
+        <v>0.7988632327230302</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9819396948881266</v>
+        <v>0.9751337723725892</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>92</v>
@@ -979,19 +979,19 @@
         <v>67788</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>63795</v>
+        <v>63226</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>70181</v>
+        <v>70319</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.9438493999455989</v>
+        <v>0.9438493999455987</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8882539502932912</v>
+        <v>0.8803205411093407</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9771707585273621</v>
+        <v>0.9790938343770167</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>161</v>
@@ -1000,19 +1000,19 @@
         <v>139943</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>129426</v>
+        <v>130866</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>144927</v>
+        <v>145097</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.9314858400830491</v>
+        <v>0.9314858400830489</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8614827134500808</v>
+        <v>0.8710696388357968</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9646618393689086</v>
+        <v>0.9657933452210078</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>6260</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1416</v>
+        <v>1950</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16894</v>
+        <v>15772</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07983813899677528</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01806030511187339</v>
+        <v>0.02486622762741062</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2154445796201876</v>
+        <v>0.2011367672769698</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -1050,19 +1050,19 @@
         <v>4033</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1640</v>
+        <v>1502</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8026</v>
+        <v>8595</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05615060005440115</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0228292414726393</v>
+        <v>0.02090616562298352</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1117460497067091</v>
+        <v>0.1196794588906601</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -1071,19 +1071,19 @@
         <v>10293</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5309</v>
+        <v>5139</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>20810</v>
+        <v>19370</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.06851415991695099</v>
+        <v>0.06851415991695098</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03533816063109142</v>
+        <v>0.03420665477899166</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1385172865499197</v>
+        <v>0.1289303611642031</v>
       </c>
     </row>
     <row r="9">
@@ -1493,19 +1493,19 @@
         <v>127650</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>113429</v>
+        <v>111155</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>138324</v>
+        <v>139101</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8099244944271486</v>
+        <v>0.8099244944271488</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7196930135808057</v>
+        <v>0.7052665717691223</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8776493823390542</v>
+        <v>0.8825819602673148</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>166</v>
@@ -1514,19 +1514,19 @@
         <v>120360</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>109460</v>
+        <v>109711</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>128443</v>
+        <v>128303</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8303475713137558</v>
+        <v>0.8303475713137559</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7551531648356484</v>
+        <v>0.7568856540348119</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8861120418391141</v>
+        <v>0.8851486054343913</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>285</v>
@@ -1535,19 +1535,19 @@
         <v>248009</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>227916</v>
+        <v>229952</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>261093</v>
+        <v>261883</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8197088769221691</v>
+        <v>0.819708876922169</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7532972638394984</v>
+        <v>0.7600265780192591</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.862950913996074</v>
+        <v>0.8655613211713549</v>
       </c>
     </row>
     <row r="17">
@@ -1564,19 +1564,19 @@
         <v>29957</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19283</v>
+        <v>18506</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>44178</v>
+        <v>46452</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1900755055728512</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.122350617660946</v>
+        <v>0.1174180397326852</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2803069864191945</v>
+        <v>0.2947334282308774</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -1585,19 +1585,19 @@
         <v>24591</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16508</v>
+        <v>16648</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>35491</v>
+        <v>35240</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1696524286862442</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1138879581608854</v>
+        <v>0.1148513945656087</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2448468351643511</v>
+        <v>0.2431143459651882</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>49</v>
@@ -1606,19 +1606,19 @@
         <v>54549</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>41465</v>
+        <v>40675</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>74642</v>
+        <v>72606</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1802911230778308</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.137049086003926</v>
+        <v>0.1344386788286453</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.246702736160502</v>
+        <v>0.2399734219807409</v>
       </c>
     </row>
     <row r="18">
